--- a/src/assets/documents/ippis-upload-sample.xlsx
+++ b/src/assets/documents/ippis-upload-sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unwachukwu1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unwachukwu1\Documents\coding\gigs\dominion-loan-repayment-portal\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63416267-7C76-4732-92AE-97AC7AA1A22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3D83F5-FF53-4018-8736-7441A423F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>STAFF_ID</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>ACCOUNT_NUMBER</t>
+  </si>
+  <si>
+    <t>IPPIS_NO</t>
   </si>
 </sst>
 </file>
@@ -436,58 +439,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC07977B-1539-4CC5-B012-73A94EE6BE35}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/assets/documents/ippis-upload-sample.xlsx
+++ b/src/assets/documents/ippis-upload-sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unwachukwu1\Documents\coding\gigs\dominion-loan-repayment-portal\src\assets\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unwachukwu1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3D83F5-FF53-4018-8736-7441A423F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A69D0AA-B4DA-4E87-9A7F-89C6F26E85E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>STAFF_ID</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>IPPIS_NO</t>
+  </si>
+  <si>
+    <t>EMPLOYER</t>
   </si>
 </sst>
 </file>
@@ -439,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC07977B-1539-4CC5-B012-73A94EE6BE35}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -458,42 +461,45 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
     </row>
